--- a/Test Cases/Execution Results/Example Test Case Execution.xlsx
+++ b/Test Cases/Execution Results/Example Test Case Execution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="5200" windowWidth="30740" windowHeight="17080" activeTab="1"/>
+    <workbookView xWindow="17780" yWindow="5200" windowWidth="30740" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="Run 001" sheetId="1" r:id="rId1"/>
@@ -963,7 +963,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1007,6 +1007,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1101,7 +1102,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1132,6 +1133,7 @@
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1450,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L749"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10640,8 +10642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
